--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nopy8\Documents\GitHub\vege-detecor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76049929-BEDA-4FF7-BDDE-311057CC4DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424E642B-B8D5-4B6B-B64D-4C1582FC4075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Semaine</t>
   </si>
@@ -34,6 +34,30 @@
   </si>
   <si>
     <t>Jour Vege</t>
+  </si>
+  <si>
+    <t>Menu végé</t>
+  </si>
+  <si>
+    <t>Menu bon</t>
+  </si>
+  <si>
+    <t>Salade verte Petits suisse/Fromage Taboulé Pépites de légumes Pamplemousse Bio Lentilles Fruits Bio</t>
+  </si>
+  <si>
+    <t>Salade verte Croustillant au fromage Œufs durs Gratin de choux-fleurs Yaourt fermier Fruits Bio</t>
+  </si>
+  <si>
+    <t>Salade verte Yaourt/Fromage Pavé végétal aux légumes Soupe de tomate Boulgour aux épices Flan caramel Menu végétarien Fruits Bio</t>
+  </si>
+  <si>
+    <t>Asperges Omelette maison Avocat vinaigrette Gratin de courgettes Beignet Fruits Bio</t>
+  </si>
+  <si>
+    <t>Salade verte Fromage Endives au noix Chili végétal R i Salade de chou aux raisins Haricots rouge et riz Yaourt brassé Menu végétarien Fruits Bio</t>
+  </si>
+  <si>
+    <t>Salade verte Yaourt/Fromage Œufs mimosa Croque de blé fromage épinard Salade de quinoa Haricots blancs tomaté Fromage blanc BIO Menu végétarien Fruits Bio</t>
   </si>
 </sst>
 </file>
@@ -351,18 +375,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="23.26953125" customWidth="1"/>
+    <col min="4" max="4" width="140.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -372,96 +397,138 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>16</v>
       </c>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nopy8\Documents\GitHub\vege-detecor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lwijidèy\Documents\GitHub\vege-detecor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424E642B-B8D5-4B6B-B64D-4C1582FC4075}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABF19EC-3ECC-485C-8C49-F4BE9121846C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,22 +42,44 @@
     <t>Menu bon</t>
   </si>
   <si>
-    <t>Salade verte Petits suisse/Fromage Taboulé Pépites de légumes Pamplemousse Bio Lentilles Fruits Bio</t>
-  </si>
-  <si>
-    <t>Salade verte Croustillant au fromage Œufs durs Gratin de choux-fleurs Yaourt fermier Fruits Bio</t>
-  </si>
-  <si>
-    <t>Salade verte Yaourt/Fromage Pavé végétal aux légumes Soupe de tomate Boulgour aux épices Flan caramel Menu végétarien Fruits Bio</t>
-  </si>
-  <si>
-    <t>Asperges Omelette maison Avocat vinaigrette Gratin de courgettes Beignet Fruits Bio</t>
-  </si>
-  <si>
     <t>Salade verte Fromage Endives au noix Chili végétal R i Salade de chou aux raisins Haricots rouge et riz Yaourt brassé Menu végétarien Fruits Bio</t>
   </si>
   <si>
     <t>Salade verte Yaourt/Fromage Œufs mimosa Croque de blé fromage épinard Salade de quinoa Haricots blancs tomaté Fromage blanc BIO Menu végétarien Fruits Bio</t>
+  </si>
+  <si>
+    <t>Salade verte
+Taboulé
+Pépites de légumes
+Lentilles
+Pamplemousse Bio
+Petits suisse/Fromage
+Fruits Bio</t>
+  </si>
+  <si>
+    <t>Salade verte
+Croustillant au fromage
+Œufs durs
+Gratin de choux-fleurs
+Yaourt fermier
+Fruits Bio</t>
+  </si>
+  <si>
+    <t>Salade verte
+Soupe de tomate
+Pavé végétal aux légumes
+Boulgour aux épices
+Yaourt/Fromage
+Flan caramel
+Fruits Bio</t>
+  </si>
+  <si>
+    <t>Asperges
+Avocat vinaigrette
+Gratin de courgettes
+Omelette maison
+Beignet
+Fruits Bio</t>
   </si>
 </sst>
 </file>
@@ -93,8 +115,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,16 +403,16 @@
   <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="23.26953125" customWidth="1"/>
-    <col min="4" max="4" width="140.54296875" customWidth="1"/>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+    <col min="4" max="4" width="140.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -414,11 +439,11 @@
       <c r="C2">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -428,11 +453,11 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -442,11 +467,11 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -456,11 +481,11 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -471,10 +496,10 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -485,225 +510,225 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
